--- a/output/fit_clients/fit_round_469.xlsx
+++ b/output/fit_clients/fit_round_469.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1774481190.791305</v>
+        <v>2265878454.256155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07815936581979192</v>
+        <v>0.08961119870437692</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03050866146627217</v>
+        <v>0.04473522756159645</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>887240560.7160491</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1834960974.664172</v>
+        <v>1919956703.271641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1200358799347482</v>
+        <v>0.1575980205036845</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04044968687867707</v>
+        <v>0.04067255647530575</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>917480501.8530802</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3709654615.641138</v>
+        <v>4654452152.342514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1106560014035478</v>
+        <v>0.1466866668242678</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02680317041199924</v>
+        <v>0.03228601105039311</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>169</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1854827301.46258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3283090663.362906</v>
+        <v>4177058301.617148</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1010904706850365</v>
+        <v>0.07707531418528317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03257550436440104</v>
+        <v>0.03190115312058867</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>173</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1641545382.857159</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2466484663.004766</v>
+        <v>2384358196.786168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1457601982065688</v>
+        <v>0.1411557190877013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05487297892709925</v>
+        <v>0.0402396557006189</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1233242310.633189</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2415663155.152838</v>
+        <v>3034960449.136867</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0775649153819165</v>
+        <v>0.09068477531936349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03870898863429255</v>
+        <v>0.04281621901794803</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>147</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1207831598.748233</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3007462202.8646</v>
+        <v>3658140921.051582</v>
       </c>
       <c r="F8" t="n">
-        <v>0.165109759282235</v>
+        <v>0.2181555257610965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02958986938777958</v>
+        <v>0.02844909627827512</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1503731159.727958</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1661540606.873163</v>
+        <v>1708734738.662122</v>
       </c>
       <c r="F9" t="n">
-        <v>0.180650519130258</v>
+        <v>0.1747597461478055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03368998407237761</v>
+        <v>0.03564723799353802</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>830770377.0290256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3729030481.124845</v>
+        <v>3844443561.029774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1893261719160163</v>
+        <v>0.1360542324764042</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03482308656849021</v>
+        <v>0.04429071089598247</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>197</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1864515241.492167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3728031688.385928</v>
+        <v>3054507288.697975</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1827701024233032</v>
+        <v>0.1264271860569865</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03959863084811086</v>
+        <v>0.04614006154778034</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>194</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1864015837.927083</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3234554495.8809</v>
+        <v>2305666815.012267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1880512381648569</v>
+        <v>0.1837064020646984</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0525645194420267</v>
+        <v>0.05186613036693483</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>159</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1617277287.439396</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4621214367.00771</v>
+        <v>3639479737.66578</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06976385707298953</v>
+        <v>0.09255272856109119</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02224872649755374</v>
+        <v>0.02170608328458006</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>157</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2310607206.89993</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3475610906.405932</v>
+        <v>2702672276.801378</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1586577756199422</v>
+        <v>0.1454524725137649</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03095412228640818</v>
+        <v>0.0300452315461609</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>150</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1737805453.220522</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1240579124.001128</v>
+        <v>1623601909.825748</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07503065428526084</v>
+        <v>0.07163058652098518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04660390978253058</v>
+        <v>0.0317149452260929</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>620289588.7039331</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2151019402.849157</v>
+        <v>2411563747.772212</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08715204282344162</v>
+        <v>0.1046165833360078</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0418830924351254</v>
+        <v>0.03490683860099455</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1075509763.432937</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4851645697.72519</v>
+        <v>3223628001.268154</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1374877484789087</v>
+        <v>0.1201112394580531</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03576045304048868</v>
+        <v>0.04539739723312226</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2425822841.379869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3515007188.320096</v>
+        <v>2665606631.786575</v>
       </c>
       <c r="F18" t="n">
-        <v>0.152108932696798</v>
+        <v>0.1765295201556143</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02463227021995918</v>
+        <v>0.0242734416849053</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>153</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1757503587.154032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1260596603.285969</v>
+        <v>886816167.9093819</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1270790663380438</v>
+        <v>0.1588341563954619</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01828487822178205</v>
+        <v>0.02435378402575039</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>630298394.3205595</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2421226628.589946</v>
+        <v>2014588688.499342</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1538282785877885</v>
+        <v>0.1486817387981169</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0292082502359282</v>
+        <v>0.01967314338913723</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1210613295.805053</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2234628239.06555</v>
+        <v>2111644924.488061</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07054591036002965</v>
+        <v>0.09824453436804252</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02927022483100633</v>
+        <v>0.04421327924711518</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1117314133.072909</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3594779255.29515</v>
+        <v>3764708577.590283</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1118787446087239</v>
+        <v>0.08941554548014852</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03480400051806543</v>
+        <v>0.05517537139965954</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1797389653.584976</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1012670100.746041</v>
+        <v>1541086827.696843</v>
       </c>
       <c r="F23" t="n">
-        <v>0.113872867796115</v>
+        <v>0.1235003670355674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04957284483558304</v>
+        <v>0.04294254885449169</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>506335118.447934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3658584278.411479</v>
+        <v>2579317739.266022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1461143146804305</v>
+        <v>0.09310647418697317</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02434250367350955</v>
+        <v>0.02299534690058777</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>137</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1829292130.183091</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1384149437.644234</v>
+        <v>1053926754.082473</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09016605222471774</v>
+        <v>0.08001510047981368</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01922224448293357</v>
+        <v>0.02855226948605788</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>692074694.4366421</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1102729192.250356</v>
+        <v>982583673.231851</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1038683674391395</v>
+        <v>0.07902399769112661</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02481475026049105</v>
+        <v>0.03802207083085204</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>551364593.3792678</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3127933254.519377</v>
+        <v>3836123318.106749</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1184262332983849</v>
+        <v>0.1492586949129443</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01882028798911804</v>
+        <v>0.01742577302848507</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>114</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1563966680.72913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3571494349.389183</v>
+        <v>2435564364.758056</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1365076850422387</v>
+        <v>0.1382216434291279</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03059863866910076</v>
+        <v>0.03724199110620268</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>154</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1785747235.541098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4179034605.608066</v>
+        <v>5370318840.615081</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1158087346812376</v>
+        <v>0.1258797784672769</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03274811552183906</v>
+        <v>0.04548802012958514</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>207</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2089517307.31578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2164839026.31168</v>
+        <v>1508123726.14513</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1223025113758475</v>
+        <v>0.1345938492193079</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03189676880089212</v>
+        <v>0.02691370846408072</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1082419569.410626</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1241777546.580214</v>
+        <v>972944617.2819942</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07078707279088581</v>
+        <v>0.07270508327033232</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0514538228581372</v>
+        <v>0.05179020345695554</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>620888714.9326634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1712619071.932</v>
+        <v>1459007497.291539</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1208408164830001</v>
+        <v>0.08872037093111568</v>
       </c>
       <c r="G32" t="n">
-        <v>0.036146840714756</v>
+        <v>0.02391105119539225</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>856309648.355778</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2968860183.32084</v>
+        <v>2350109454.199878</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1334214428490166</v>
+        <v>0.1978496528369724</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04055307354484562</v>
+        <v>0.04644650400309805</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1484430089.984327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1430326835.47726</v>
+        <v>1360521026.97661</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09572315800557117</v>
+        <v>0.1200869392794658</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01915544242962663</v>
+        <v>0.02166375370872481</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>715163385.0464159</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1227102110.448165</v>
+        <v>881823987.2004861</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08414308340410652</v>
+        <v>0.09838346281021398</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03432465781050299</v>
+        <v>0.02779488353584318</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>613551024.0196882</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3184257543.043934</v>
+        <v>2475316240.112468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1090463382622679</v>
+        <v>0.1295133792055588</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02138535010227059</v>
+        <v>0.02251032701818576</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1592128738.696904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2788106962.98934</v>
+        <v>2368152264.916829</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07177591081563148</v>
+        <v>0.07130748061570741</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0310687937516882</v>
+        <v>0.04266992018948357</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>125</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1394053617.189256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2096857916.323163</v>
+        <v>1520716346.423634</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1092986824628134</v>
+        <v>0.1068300341260043</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03960640470859705</v>
+        <v>0.02958853810609312</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1048428923.125371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2219754180.940099</v>
+        <v>1520525387.702378</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1364506140761413</v>
+        <v>0.1291893673091365</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02399649481105346</v>
+        <v>0.02284481523219186</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1109877051.655006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1699875349.984647</v>
+        <v>1322547121.376771</v>
       </c>
       <c r="F40" t="n">
-        <v>0.161251190167857</v>
+        <v>0.1104148673723199</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0594598618373423</v>
+        <v>0.04616165508215288</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>849937591.1609707</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2274490434.722408</v>
+        <v>1803507946.07464</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1542259336889006</v>
+        <v>0.1477355630833263</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04710722334558256</v>
+        <v>0.03674862415814505</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>113</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1137245264.73668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3538793161.823771</v>
+        <v>4312736558.874784</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09082891841679605</v>
+        <v>0.09543274805403457</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03389522938253618</v>
+        <v>0.03209654181308753</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>153</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1769396578.452851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2201725685.044836</v>
+        <v>2569118676.639436</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2012428292794498</v>
+        <v>0.1592427348163058</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01887121748275609</v>
+        <v>0.02282263855351785</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>164</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1100862921.205528</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1553177891.779353</v>
+        <v>1607113500.284559</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07515568991930756</v>
+        <v>0.07410956140722214</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03315240834176613</v>
+        <v>0.03083119650262665</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>776588963.0922612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2489511873.607343</v>
+        <v>2531618848.573475</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1470183031702133</v>
+        <v>0.1334770084108832</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04892450016887089</v>
+        <v>0.05473769516742655</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1244755977.030971</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5036671505.522055</v>
+        <v>4932381764.937752</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1124894892926799</v>
+        <v>0.1750393202983304</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05765114032838818</v>
+        <v>0.04314403470322076</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>166</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2518335781.709489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5128226801.552485</v>
+        <v>3649228170.460693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1604622864196787</v>
+        <v>0.1648171099073701</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04276459579760841</v>
+        <v>0.05588085648247815</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2564113463.867769</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4304475996.453498</v>
+        <v>4632647064.938763</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09621829501952049</v>
+        <v>0.08082256413243044</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03704546385163965</v>
+        <v>0.03721989380005914</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>153</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2152238014.897444</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1331813166.296447</v>
+        <v>1259831905.68329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1895334797711441</v>
+        <v>0.1738374503363088</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03547662325061091</v>
+        <v>0.04323988795271314</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>665906641.3298349</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3523326980.852084</v>
+        <v>3517247364.253203</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1362808685714489</v>
+        <v>0.1229260137922845</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04211151202976955</v>
+        <v>0.03549044682218438</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>160</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1761663513.038978</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1041159541.089081</v>
+        <v>1046310198.977383</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1517459599572614</v>
+        <v>0.1829592970130739</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05336332133705371</v>
+        <v>0.04609027637935781</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>520579847.8679082</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4279819540.697731</v>
+        <v>3840501884.976709</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1317029516215316</v>
+        <v>0.133961237484574</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06122944803758931</v>
+        <v>0.05651537830711378</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>193</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2139909810.379801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2687518983.899135</v>
+        <v>2709597713.007604</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1764520565512948</v>
+        <v>0.197875741409537</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02967437220612934</v>
+        <v>0.02757287315644336</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>134</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1343759546.002338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4563111329.876364</v>
+        <v>4579867545.339365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1127986581675434</v>
+        <v>0.1031313002435644</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03970678636828916</v>
+        <v>0.04198255584327662</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>152</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2281555773.252872</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4045275714.183161</v>
+        <v>3484372336.043762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1356739234192302</v>
+        <v>0.1611508571821891</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03150369471381983</v>
+        <v>0.03209134435813618</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2022637834.050853</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1669469797.426858</v>
+        <v>1334206102.49477</v>
       </c>
       <c r="F56" t="n">
-        <v>0.121814261748644</v>
+        <v>0.1226337520742147</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05426576082664133</v>
+        <v>0.03597074920666197</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>834734915.8899398</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4331039812.598672</v>
+        <v>3852682279.904074</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1327732739377029</v>
+        <v>0.1684870667396077</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01694214605081027</v>
+        <v>0.01864666302007479</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>149</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2165520022.481926</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1463676925.267994</v>
+        <v>1324322868.001937</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1766700481811549</v>
+        <v>0.1658322718607999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03248689822374165</v>
+        <v>0.03790086869907718</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>731838497.1159286</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4744611876.129915</v>
+        <v>4141186254.850325</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08606034298519705</v>
+        <v>0.117591361332938</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04660016867380449</v>
+        <v>0.04911486099805312</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2372305878.12191</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2305902234.25829</v>
+        <v>2854249645.844451</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1783297632615296</v>
+        <v>0.1305980981990108</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02051941028318479</v>
+        <v>0.02506023067716525</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1152951114.693208</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2201091379.708602</v>
+        <v>2331691291.420183</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1237314366680548</v>
+        <v>0.1358761378350553</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0257477600087633</v>
+        <v>0.02041520239202074</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>160</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1100545745.683741</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1868753714.223937</v>
+        <v>1807395134.056997</v>
       </c>
       <c r="F62" t="n">
-        <v>0.185123029604974</v>
+        <v>0.1196212820884362</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0344208368228725</v>
+        <v>0.03522771561181896</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>934376895.5095383</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5436328611.43183</v>
+        <v>4317832395.168165</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09369490854597516</v>
+        <v>0.06914876155813923</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04766130542961868</v>
+        <v>0.02994400026157742</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2718164304.033248</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3575509528.191644</v>
+        <v>4186755347.101112</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1585711211013725</v>
+        <v>0.175457520074256</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03021581405314749</v>
+        <v>0.02735866140859199</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>146</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1787754770.109776</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3767162274.434763</v>
+        <v>4887582405.365614</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1314838918772229</v>
+        <v>0.1224030775130116</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0303237975372465</v>
+        <v>0.02004955289643752</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>168</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1883581169.721505</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4851463665.674857</v>
+        <v>5493870381.462702</v>
       </c>
       <c r="F66" t="n">
-        <v>0.132852149982704</v>
+        <v>0.1097901466392729</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04306595637960883</v>
+        <v>0.04736246798566842</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2425731852.060416</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2549803979.348838</v>
+        <v>2800119272.378999</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1019886913033729</v>
+        <v>0.1023988052917914</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03596948227801986</v>
+        <v>0.04911080431528424</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>150</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1274902046.045875</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5348449477.50985</v>
+        <v>5099885271.475547</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1447137513343391</v>
+        <v>0.1549193670356377</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03946557734652322</v>
+        <v>0.03601755503311752</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>149</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2674224816.275343</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2202371429.643062</v>
+        <v>1599912136.109608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1237121343329879</v>
+        <v>0.1690977498496647</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05545192100749426</v>
+        <v>0.05971124516853106</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1101185745.942678</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2379648809.140047</v>
+        <v>2990296726.633702</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0921625627660471</v>
+        <v>0.07690019415600936</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0362243819011436</v>
+        <v>0.04413201547017105</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1189824341.168493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4206056904.212448</v>
+        <v>4547765331.551229</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1807169241286121</v>
+        <v>0.1530697276636476</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0267847497121357</v>
+        <v>0.02366942269046676</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>170</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2103028498.562956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2049812500.284826</v>
+        <v>1534307618.604764</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08498940827174144</v>
+        <v>0.0810480590025309</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03431906080193738</v>
+        <v>0.03850449738115265</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1024906188.446292</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3219561806.377841</v>
+        <v>2942913070.997947</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07224397842443193</v>
+        <v>0.07308226824940529</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05221191077068119</v>
+        <v>0.04506793171767168</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>177</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1609780879.085912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2584559737.20136</v>
+        <v>3620229323.193723</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1318704307252798</v>
+        <v>0.1376955791339289</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02230638888819466</v>
+        <v>0.03438842702805655</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>159</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1292279969.934418</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1537516957.036285</v>
+        <v>2104834671.127949</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1402580730718041</v>
+        <v>0.1566252322732545</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03157675149725659</v>
+        <v>0.02404365955703525</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>768758486.0460762</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4896536338.046576</v>
+        <v>3914435493.023395</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1014206606089269</v>
+        <v>0.09361629555864902</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02487576274229717</v>
+        <v>0.02966006978596628</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2448268191.35489</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2310175533.942213</v>
+        <v>1613294566.429442</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1345541770881316</v>
+        <v>0.1194879794406991</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02536353542755193</v>
+        <v>0.03158173179261684</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1155087874.361067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4270293821.732633</v>
+        <v>3160686628.033833</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08431589985447419</v>
+        <v>0.1134632574667863</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05728645570885135</v>
+        <v>0.05153644255164511</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>163</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2135146857.279375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1421016983.75525</v>
+        <v>1266262074.209336</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1590296504471768</v>
+        <v>0.1213150929767421</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03035712894829984</v>
+        <v>0.03880346388226346</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>710508512.3098571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4459885918.477672</v>
+        <v>3646622943.634582</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1094678747289166</v>
+        <v>0.07840974292005838</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03159783225201624</v>
+        <v>0.02491092355638738</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2229942981.620738</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3170273057.721789</v>
+        <v>4650372449.193786</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1083043794938986</v>
+        <v>0.1176090482737802</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02981844815221591</v>
+        <v>0.02095046871147056</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1585136461.273303</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5244510480.577405</v>
+        <v>3886937466.578397</v>
       </c>
       <c r="F82" t="n">
-        <v>0.208105374383009</v>
+        <v>0.1770237665395599</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02151322159539409</v>
+        <v>0.02946220725223888</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>163</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2622255210.616674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2301397200.567063</v>
+        <v>2284791622.379042</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1534188680763664</v>
+        <v>0.1387160238816508</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04560432994645255</v>
+        <v>0.04090262989937507</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1150698623.097678</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2596520138.320507</v>
+        <v>2568487774.158717</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07587152518698896</v>
+        <v>0.1062547953762803</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03529070600179093</v>
+        <v>0.04137207064279393</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1298259986.817656</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2260639049.408045</v>
+        <v>3491517676.585311</v>
       </c>
       <c r="F85" t="n">
-        <v>0.158862583772025</v>
+        <v>0.1687087880966438</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04204255164091908</v>
+        <v>0.03492617410622683</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>175</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1130319503.278398</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2227939706.249949</v>
+        <v>2620499800.764093</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1193665498934126</v>
+        <v>0.1535317879202574</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0208756011795359</v>
+        <v>0.02132079065164848</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1113969912.460124</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>924435080.5244263</v>
+        <v>1414062929.092239</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1866903127653773</v>
+        <v>0.1278991338436663</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04356911834981702</v>
+        <v>0.03707166030665236</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>462217525.2455027</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3698148512.609741</v>
+        <v>3035189920.193748</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1597409836869768</v>
+        <v>0.1224673628331065</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03082180444419419</v>
+        <v>0.0361094396738947</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>186</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1849074355.762623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3235019497.779058</v>
+        <v>2566033142.589523</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1330517603122391</v>
+        <v>0.1146630264753449</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0294084967728126</v>
+        <v>0.03573161005196271</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>159</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1617509769.785959</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1753652799.151749</v>
+        <v>2061287140.590492</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1108756970716992</v>
+        <v>0.1049279245064681</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03769052616705915</v>
+        <v>0.05552185011928196</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>876826424.725003</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1730739209.544035</v>
+        <v>1381485691.965646</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1935611832767811</v>
+        <v>0.1407398902658464</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04004533960544838</v>
+        <v>0.05212593905959623</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>865369612.9410387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2898575406.421805</v>
+        <v>2804904822.552816</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07833509492786317</v>
+        <v>0.09101621191724406</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03196521731143685</v>
+        <v>0.03588490980000138</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>129</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1449287717.270415</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4083918794.4057</v>
+        <v>3777173492.448997</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1130052233864284</v>
+        <v>0.08634266728715605</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04936984024849079</v>
+        <v>0.04775994489556412</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2041959392.395948</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2226911773.441596</v>
+        <v>1819531171.871193</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1337052455213389</v>
+        <v>0.1530772423947813</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03306849699888453</v>
+        <v>0.03096744707715308</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1113455914.598211</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3031276674.66274</v>
+        <v>2569370300.363595</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1197982127463456</v>
+        <v>0.1273570160938851</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04348985691233289</v>
+        <v>0.03947231732931353</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>116</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1515638334.799134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1561381358.36472</v>
+        <v>1979012862.303607</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1255544241341592</v>
+        <v>0.1085597379880182</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03276512931593367</v>
+        <v>0.04437827006580078</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>780690712.9924051</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3610904715.525868</v>
+        <v>4417298243.002528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1202400859090266</v>
+        <v>0.1449641098037631</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02579054819427614</v>
+        <v>0.02332691882324684</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1805452382.867218</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3040251158.9571</v>
+        <v>3207301829.508437</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117379543415631</v>
+        <v>0.1035227462392583</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02913062390873276</v>
+        <v>0.02002964873973314</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1520125566.915063</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2670502869.411522</v>
+        <v>2316713419.848281</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1002541358483142</v>
+        <v>0.1176413628509404</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03542508312658402</v>
+        <v>0.03350601554236109</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>147</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1335251396.775435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3787031139.626171</v>
+        <v>4514162422.57014</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1155208390001979</v>
+        <v>0.1599443935369814</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02223461682230066</v>
+        <v>0.01722290599996215</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>144</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1893515623.514018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2227249378.630902</v>
+        <v>2656791036.130859</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1612305233413439</v>
+        <v>0.1739926619119747</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04390759644139239</v>
+        <v>0.0535960537846741</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>193</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1113624676.315143</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_469.xlsx
+++ b/output/fit_clients/fit_round_469.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2265878454.256155</v>
+        <v>2144241691.009254</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08961119870437692</v>
+        <v>0.09226053450692595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04473522756159645</v>
+        <v>0.02948426461694865</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1919956703.271641</v>
+        <v>2045460003.183955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1575980205036845</v>
+        <v>0.1541446052452739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04067255647530575</v>
+        <v>0.03511366949648668</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4654452152.342514</v>
+        <v>4767382061.076368</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1466866668242678</v>
+        <v>0.1086112007053901</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03228601105039311</v>
+        <v>0.03329972684650691</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4177058301.617148</v>
+        <v>3204581964.212958</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07707531418528317</v>
+        <v>0.08274598010278741</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03190115312058867</v>
+        <v>0.03529509781519714</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2384358196.786168</v>
+        <v>1812687817.413497</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1411557190877013</v>
+        <v>0.09986699935081587</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0402396557006189</v>
+        <v>0.04087966065616126</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3034960449.136867</v>
+        <v>2370460641.297299</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09068477531936349</v>
+        <v>0.08979396169912614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04281621901794803</v>
+        <v>0.04846297517884555</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3658140921.051582</v>
+        <v>3553937104.473482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2181555257610965</v>
+        <v>0.1888339980543832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02844909627827512</v>
+        <v>0.0294566814229549</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1708734738.662122</v>
+        <v>1602093176.358477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1747597461478055</v>
+        <v>0.1366198513756052</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03564723799353802</v>
+        <v>0.03167715249155491</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3844443561.029774</v>
+        <v>3962629565.827944</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1360542324764042</v>
+        <v>0.1838480433502883</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04429071089598247</v>
+        <v>0.03651661244760795</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3054507288.697975</v>
+        <v>3860028356.940234</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1264271860569865</v>
+        <v>0.1395182626910236</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04614006154778034</v>
+        <v>0.03177992896462501</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2305666815.012267</v>
+        <v>2896003397.422936</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1837064020646984</v>
+        <v>0.1312713427032177</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05186613036693483</v>
+        <v>0.04838607706386949</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3639479737.66578</v>
+        <v>3991241973.442348</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09255272856109119</v>
+        <v>0.0799833362017716</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02170608328458006</v>
+        <v>0.02646837477815623</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2702672276.801378</v>
+        <v>3807006237.329831</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1454524725137649</v>
+        <v>0.1228378345386456</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0300452315461609</v>
+        <v>0.02911052230658808</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1623601909.825748</v>
+        <v>1540730195.360826</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07163058652098518</v>
+        <v>0.06993377135451789</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0317149452260929</v>
+        <v>0.04944611964299447</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2411563747.772212</v>
+        <v>2112549205.99674</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1046165833360078</v>
+        <v>0.0942778498813482</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03490683860099455</v>
+        <v>0.04489887219502518</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3223628001.268154</v>
+        <v>4786773267.382313</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1201112394580531</v>
+        <v>0.1231850402822667</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04539739723312226</v>
+        <v>0.037626408010482</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2665606631.786575</v>
+        <v>3937774449.671697</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1765295201556143</v>
+        <v>0.1525717839723504</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0242734416849053</v>
+        <v>0.03048772841109586</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>886816167.9093819</v>
+        <v>1226018486.390156</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1588341563954619</v>
+        <v>0.1818856944640822</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02435378402575039</v>
+        <v>0.02493859488268643</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2014588688.499342</v>
+        <v>2252564430.463227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1486817387981169</v>
+        <v>0.1435933811634418</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01967314338913723</v>
+        <v>0.02226782424153268</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2111644924.488061</v>
+        <v>1676718568.916049</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09824453436804252</v>
+        <v>0.1018067191530627</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04421327924711518</v>
+        <v>0.03223386910430429</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3764708577.590283</v>
+        <v>2960228339.827922</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08941554548014852</v>
+        <v>0.09252984590554683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05517537139965954</v>
+        <v>0.03785145751375091</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1541086827.696843</v>
+        <v>1536569166.843521</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1235003670355674</v>
+        <v>0.1585978215145101</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04294254885449169</v>
+        <v>0.03721290548443607</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2579317739.266022</v>
+        <v>3966629948.678258</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09310647418697317</v>
+        <v>0.1172018662619072</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02299534690058777</v>
+        <v>0.02648001260074813</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1053926754.082473</v>
+        <v>1006294735.276047</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08001510047981368</v>
+        <v>0.1095924812614675</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02855226948605788</v>
+        <v>0.02555439128464306</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>982583673.231851</v>
+        <v>1051925517.737945</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07902399769112661</v>
+        <v>0.115609583885691</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03802207083085204</v>
+        <v>0.03641803346683617</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3836123318.106749</v>
+        <v>4210838928.979612</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1492586949129443</v>
+        <v>0.1316116350595997</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01742577302848507</v>
+        <v>0.02125538093858993</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2435564364.758056</v>
+        <v>3268395098.655375</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1382216434291279</v>
+        <v>0.1151185254192777</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03724199110620268</v>
+        <v>0.04492295706073504</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5370318840.615081</v>
+        <v>3962462943.68337</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1258797784672769</v>
+        <v>0.1415297114491369</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04548802012958514</v>
+        <v>0.03577566504057517</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1508123726.14513</v>
+        <v>2236925260.525275</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1345938492193079</v>
+        <v>0.1338616994216134</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02691370846408072</v>
+        <v>0.03315173489101014</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>972944617.2819942</v>
+        <v>1400447518.694063</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07270508327033232</v>
+        <v>0.07908238092117778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05179020345695554</v>
+        <v>0.03701139857094311</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1459007497.291539</v>
+        <v>1837250605.293005</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08872037093111568</v>
+        <v>0.07853165506310539</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02391105119539225</v>
+        <v>0.03172654163651374</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2350109454.199878</v>
+        <v>1998869588.281225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1978496528369724</v>
+        <v>0.1948244620713015</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04644650400309805</v>
+        <v>0.04155797307524769</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1360521026.97661</v>
+        <v>1023785247.82891</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1200869392794658</v>
+        <v>0.08124474438227512</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02166375370872481</v>
+        <v>0.02768381157030066</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>881823987.2004861</v>
+        <v>1324792047.583272</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09838346281021398</v>
+        <v>0.1011895060692104</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02779488353584318</v>
+        <v>0.04423216898707164</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2475316240.112468</v>
+        <v>3196216675.891853</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1295133792055588</v>
+        <v>0.1639442978496048</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02251032701818576</v>
+        <v>0.02211145739771146</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2368152264.916829</v>
+        <v>2910917293.011909</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07130748061570741</v>
+        <v>0.07869788936391044</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04266992018948357</v>
+        <v>0.02863155399930077</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1520716346.423634</v>
+        <v>1579589825.436103</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1068300341260043</v>
+        <v>0.1111429612052686</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02958853810609312</v>
+        <v>0.03323915437133328</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1520525387.702378</v>
+        <v>1340741953.601818</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1291893673091365</v>
+        <v>0.1264912306687392</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02284481523219186</v>
+        <v>0.02917742499864134</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1322547121.376771</v>
+        <v>1702356914.475788</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1104148673723199</v>
+        <v>0.1260448924642595</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04616165508215288</v>
+        <v>0.05202336699591738</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1803507946.07464</v>
+        <v>2594260139.864444</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1477355630833263</v>
+        <v>0.1010273910572815</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03674862415814505</v>
+        <v>0.03197747250782535</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4312736558.874784</v>
+        <v>3100189960.193675</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09543274805403457</v>
+        <v>0.1198876755433514</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03209654181308753</v>
+        <v>0.03245671943540717</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2569118676.639436</v>
+        <v>2628074245.780542</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1592427348163058</v>
+        <v>0.1835908675820784</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02282263855351785</v>
+        <v>0.01982007120563466</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1607113500.284559</v>
+        <v>1711832793.812967</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07410956140722214</v>
+        <v>0.07633030986268946</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03083119650262665</v>
+        <v>0.02800061642493491</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2531618848.573475</v>
+        <v>2166769757.824768</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1334770084108832</v>
+        <v>0.1410137989575749</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05473769516742655</v>
+        <v>0.05471584848340182</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4932381764.937752</v>
+        <v>3961534713.669497</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1750393202983304</v>
+        <v>0.1327078705826163</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04314403470322076</v>
+        <v>0.03700224599114103</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3649228170.460693</v>
+        <v>4049399219.538804</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1648171099073701</v>
+        <v>0.1517589361551948</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05588085648247815</v>
+        <v>0.05176849412522541</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4632647064.938763</v>
+        <v>4045963437.82073</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08082256413243044</v>
+        <v>0.07734844722745883</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03721989380005914</v>
+        <v>0.03116531719626581</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1259831905.68329</v>
+        <v>1556464968.312914</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1738374503363088</v>
+        <v>0.145307716598242</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04323988795271314</v>
+        <v>0.04125486056191468</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3517247364.253203</v>
+        <v>3274369954.820585</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1229260137922845</v>
+        <v>0.1606607982818211</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03549044682218438</v>
+        <v>0.04621776041895107</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1046310198.977383</v>
+        <v>1322727972.154497</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1829592970130739</v>
+        <v>0.1362574124149837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04609027637935781</v>
+        <v>0.03570558900035527</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3840501884.976709</v>
+        <v>4399448737.167994</v>
       </c>
       <c r="F52" t="n">
-        <v>0.133961237484574</v>
+        <v>0.1129142264894373</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05651537830711378</v>
+        <v>0.06146966794586482</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2709597713.007604</v>
+        <v>2516515576.585331</v>
       </c>
       <c r="F53" t="n">
-        <v>0.197875741409537</v>
+        <v>0.136910742503188</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02757287315644336</v>
+        <v>0.02292356837582268</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4579867545.339365</v>
+        <v>3747668222.094698</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1031313002435644</v>
+        <v>0.1386085418018122</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04198255584327662</v>
+        <v>0.03655511065083691</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3484372336.043762</v>
+        <v>4846725585.231012</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1611508571821891</v>
+        <v>0.2240212865296312</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03209134435813618</v>
+        <v>0.02444911535659569</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1334206102.49477</v>
+        <v>1667254997.374056</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1226337520742147</v>
+        <v>0.165148671867708</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03597074920666197</v>
+        <v>0.04760161355539223</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3852682279.904074</v>
+        <v>4150906534.78299</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1684870667396077</v>
+        <v>0.1444343243912149</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01864666302007479</v>
+        <v>0.02343816605439843</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1324322868.001937</v>
+        <v>1807713333.805036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1658322718607999</v>
+        <v>0.1989357942406712</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03790086869907718</v>
+        <v>0.0295738182921346</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4141186254.850325</v>
+        <v>4393007922.200319</v>
       </c>
       <c r="F59" t="n">
-        <v>0.117591361332938</v>
+        <v>0.117709905180413</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04911486099805312</v>
+        <v>0.03394620252963285</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2854249645.844451</v>
+        <v>3723242047.962864</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1305980981990108</v>
+        <v>0.1621750897690256</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02506023067716525</v>
+        <v>0.02061844562723889</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2331691291.420183</v>
+        <v>2408688098.492514</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1358761378350553</v>
+        <v>0.1565715505079311</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02041520239202074</v>
+        <v>0.02428810726721903</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1807395134.056997</v>
+        <v>2047339051.5863</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1196212820884362</v>
+        <v>0.1205312514487111</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03522771561181896</v>
+        <v>0.03657045559261353</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4317832395.168165</v>
+        <v>3927096977.73929</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06914876155813923</v>
+        <v>0.09791584526157861</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02994400026157742</v>
+        <v>0.03543519272127082</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4186755347.101112</v>
+        <v>5200711377.314501</v>
       </c>
       <c r="F64" t="n">
-        <v>0.175457520074256</v>
+        <v>0.121031372355534</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02735866140859199</v>
+        <v>0.02743965438094773</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4887582405.365614</v>
+        <v>3721311435.52197</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1224030775130116</v>
+        <v>0.1527737301840134</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02004955289643752</v>
+        <v>0.03114427661582497</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5493870381.462702</v>
+        <v>3474054896.204736</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1097901466392729</v>
+        <v>0.1434094199164409</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04736246798566842</v>
+        <v>0.03142785235040887</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2800119272.378999</v>
+        <v>3430238186.144875</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1023988052917914</v>
+        <v>0.09754094024988862</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04911080431528424</v>
+        <v>0.03518991758215403</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5099885271.475547</v>
+        <v>4972336812.494589</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1549193670356377</v>
+        <v>0.1170663538758935</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03601755503311752</v>
+        <v>0.03414932020243309</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1599912136.109608</v>
+        <v>1969779350.603301</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1690977498496647</v>
+        <v>0.1817861846033021</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05971124516853106</v>
+        <v>0.05961465200056758</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2990296726.633702</v>
+        <v>2966204877.546158</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07690019415600936</v>
+        <v>0.08250870327682226</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04413201547017105</v>
+        <v>0.03882368726326012</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4547765331.551229</v>
+        <v>5361774927.03508</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1530697276636476</v>
+        <v>0.131415518054997</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02366942269046676</v>
+        <v>0.02992139165188813</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1534307618.604764</v>
+        <v>1878902968.164029</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0810480590025309</v>
+        <v>0.0846072943062704</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03850449738115265</v>
+        <v>0.04755585258105534</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2942913070.997947</v>
+        <v>3429565652.263153</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07308226824940529</v>
+        <v>0.1071246233221424</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04506793171767168</v>
+        <v>0.04657887303349114</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3620229323.193723</v>
+        <v>3605636295.689333</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1376955791339289</v>
+        <v>0.1398344796003361</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03438842702805655</v>
+        <v>0.03019810581189965</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2104834671.127949</v>
+        <v>2478688500.083945</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1566252322732545</v>
+        <v>0.1229215443246866</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02404365955703525</v>
+        <v>0.02827518687234793</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3914435493.023395</v>
+        <v>4718034185.468628</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09361629555864902</v>
+        <v>0.1165432242931762</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02966006978596628</v>
+        <v>0.02129468368901559</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1613294566.429442</v>
+        <v>2079175216.330364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1194879794406991</v>
+        <v>0.1870443078668196</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03158173179261684</v>
+        <v>0.02883825860693577</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3160686628.033833</v>
+        <v>3607965513.243923</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1134632574667863</v>
+        <v>0.1345273379625027</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05153644255164511</v>
+        <v>0.03544492968158467</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1266262074.209336</v>
+        <v>1450838035.168287</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1213150929767421</v>
+        <v>0.148389054322547</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03880346388226346</v>
+        <v>0.03550095762605616</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3646622943.634582</v>
+        <v>4441875868.987953</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07840974292005838</v>
+        <v>0.06747528410229428</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02491092355638738</v>
+        <v>0.03718161618826296</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4650372449.193786</v>
+        <v>3562602700.78704</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1176090482737802</v>
+        <v>0.09572276888234869</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02095046871147056</v>
+        <v>0.03100551421585767</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3886937466.578397</v>
+        <v>5395883530.101784</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1770237665395599</v>
+        <v>0.1616094559112219</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02946220725223888</v>
+        <v>0.02746268362454481</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2284791622.379042</v>
+        <v>1598586578.237429</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1387160238816508</v>
+        <v>0.1179365066420264</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04090262989937507</v>
+        <v>0.04307071336484553</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2568487774.158717</v>
+        <v>2014973312.699103</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1062547953762803</v>
+        <v>0.07627160409861106</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04137207064279393</v>
+        <v>0.03246121989605204</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3491517676.585311</v>
+        <v>2988209048.264763</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1687087880966438</v>
+        <v>0.184468529173525</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03492617410622683</v>
+        <v>0.05636589534999282</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2620499800.764093</v>
+        <v>1696567944.790487</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1535317879202574</v>
+        <v>0.1649897047781601</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02132079065164848</v>
+        <v>0.02510558202771986</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1414062929.092239</v>
+        <v>979316697.3096451</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1278991338436663</v>
+        <v>0.1241206443993014</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03707166030665236</v>
+        <v>0.04204092426564945</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3035189920.193748</v>
+        <v>2311564388.574492</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1224673628331065</v>
+        <v>0.1254521213282623</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0361094396738947</v>
+        <v>0.032810263272931</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2566033142.589523</v>
+        <v>2685076055.918261</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1146630264753449</v>
+        <v>0.1526277999609523</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03573161005196271</v>
+        <v>0.03147601587622282</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2061287140.590492</v>
+        <v>1888639932.107874</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1049279245064681</v>
+        <v>0.1010053893404478</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05552185011928196</v>
+        <v>0.05374242445016488</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1381485691.965646</v>
+        <v>1614088903.887303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1407398902658464</v>
+        <v>0.1528954446887929</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05212593905959623</v>
+        <v>0.04425086704263379</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2804904822.552816</v>
+        <v>2465149840.25649</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09101621191724406</v>
+        <v>0.105276945207209</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03588490980000138</v>
+        <v>0.02956512105897425</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3777173492.448997</v>
+        <v>4513917988.296127</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08634266728715605</v>
+        <v>0.1303132623371637</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04775994489556412</v>
+        <v>0.03364466395600991</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1819531171.871193</v>
+        <v>1929554606.090651</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1530772423947813</v>
+        <v>0.1357719178637201</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03096744707715308</v>
+        <v>0.03063095429196215</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2569370300.363595</v>
+        <v>2530139883.84866</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1273570160938851</v>
+        <v>0.1325092389258217</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03947231732931353</v>
+        <v>0.03785920537833441</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1979012862.303607</v>
+        <v>1938997641.882207</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1085597379880182</v>
+        <v>0.09495222776370074</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04437827006580078</v>
+        <v>0.04348563252973472</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4417298243.002528</v>
+        <v>4545620184.048215</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1449641098037631</v>
+        <v>0.1350467914003542</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02332691882324684</v>
+        <v>0.01888108030273921</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3207301829.508437</v>
+        <v>2667690601.505474</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1035227462392583</v>
+        <v>0.1278302520031256</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02002964873973314</v>
+        <v>0.02334555644334893</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2316713419.848281</v>
+        <v>2628531033.844347</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1176413628509404</v>
+        <v>0.09419149215856505</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03350601554236109</v>
+        <v>0.03323342511359402</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4514162422.57014</v>
+        <v>4479520190.73731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1599443935369814</v>
+        <v>0.1089562722241418</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01722290599996215</v>
+        <v>0.02013571111595657</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2656791036.130859</v>
+        <v>3159703362.91777</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1739926619119747</v>
+        <v>0.157537156505231</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0535960537846741</v>
+        <v>0.05272211658932665</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_469.xlsx
+++ b/output/fit_clients/fit_round_469.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2144241691.009254</v>
+        <v>2198579094.803173</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09226053450692595</v>
+        <v>0.113447679088902</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02948426461694865</v>
+        <v>0.03007873068679917</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2045460003.183955</v>
+        <v>2221660045.981081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1541446052452739</v>
+        <v>0.1777693915432895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03511366949648668</v>
+        <v>0.03566266978694874</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4767382061.076368</v>
+        <v>5127236914.765438</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1086112007053901</v>
+        <v>0.1311967495423571</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03329972684650691</v>
+        <v>0.0344534175000327</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>237</v>
+      </c>
+      <c r="J4" t="n">
+        <v>469</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3204581964.212958</v>
+        <v>3167635208.827969</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08274598010278741</v>
+        <v>0.07188516200648838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03529509781519714</v>
+        <v>0.04163323434195591</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>198</v>
+      </c>
+      <c r="J5" t="n">
+        <v>467</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1812687817.413497</v>
+        <v>1838585466.071507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09986699935081587</v>
+        <v>0.1277369392876055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04087966065616126</v>
+        <v>0.05476543621354214</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2370460641.297299</v>
+        <v>3099945011.845816</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08979396169912614</v>
+        <v>0.06379590277981363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04846297517884555</v>
+        <v>0.04017615144169748</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3553937104.473482</v>
+        <v>2689756372.303907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1888339980543832</v>
+        <v>0.1798860765453</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0294566814229549</v>
+        <v>0.03209460935416626</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>134</v>
+      </c>
+      <c r="J8" t="n">
+        <v>468</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23.65853472168799</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1602093176.358477</v>
+        <v>2030333119.207075</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1366198513756052</v>
+        <v>0.1559132272555531</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03167715249155491</v>
+        <v>0.02429350536608782</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3962629565.827944</v>
+        <v>4729165579.001764</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1838480433502883</v>
+        <v>0.1690765721252966</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03651661244760795</v>
+        <v>0.04543035674521827</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>360</v>
+      </c>
+      <c r="J10" t="n">
+        <v>468</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.9867827516047</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3860028356.940234</v>
+        <v>2857502985.585122</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1395182626910236</v>
+        <v>0.1786853618930637</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03177992896462501</v>
+        <v>0.0457515138484433</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>195</v>
+      </c>
+      <c r="J11" t="n">
+        <v>468</v>
+      </c>
+      <c r="K11" t="n">
+        <v>23.07641226586842</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2896003397.422936</v>
+        <v>2954571939.85388</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1312713427032177</v>
+        <v>0.193789885247393</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04838607706386949</v>
+        <v>0.04370564463447478</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3991241973.442348</v>
+        <v>3640420698.121623</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0799833362017716</v>
+        <v>0.08470762711794226</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02646837477815623</v>
+        <v>0.02050652577301902</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>244</v>
+      </c>
+      <c r="J13" t="n">
+        <v>468</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.89319962780774</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3807006237.329831</v>
+        <v>2906571087.450608</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1228378345386456</v>
+        <v>0.1416433044944781</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02911052230658808</v>
+        <v>0.03666565128822846</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>107</v>
+      </c>
+      <c r="J14" t="n">
+        <v>468</v>
+      </c>
+      <c r="K14" t="n">
+        <v>31.00799249358926</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1540730195.360826</v>
+        <v>1617819930.529362</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06993377135451789</v>
+        <v>0.06911882242617713</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04944611964299447</v>
+        <v>0.04681791342998968</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2112549205.99674</v>
+        <v>2883019959.287189</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0942778498813482</v>
+        <v>0.08971419608104575</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04489887219502518</v>
+        <v>0.03752068372917464</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4786773267.382313</v>
+        <v>4457789556.499418</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1231850402822667</v>
+        <v>0.1190582022304216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.037626408010482</v>
+        <v>0.0446896803469162</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>229</v>
+      </c>
+      <c r="J17" t="n">
+        <v>469</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3937774449.671697</v>
+        <v>3604452812.777759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1525717839723504</v>
+        <v>0.1454689918098109</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03048772841109586</v>
+        <v>0.02402812273390272</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>469</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1226018486.390156</v>
+        <v>1056105905.145662</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1818856944640822</v>
+        <v>0.166411711260001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02493859488268643</v>
+        <v>0.02484308796882495</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2252564430.463227</v>
+        <v>1896339905.083647</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1435933811634418</v>
+        <v>0.1577737353279116</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02226782424153268</v>
+        <v>0.02504158390324651</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1676718568.916049</v>
+        <v>1956014316.056152</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1018067191530627</v>
+        <v>0.1013876172353103</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03223386910430429</v>
+        <v>0.04570587340527466</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1211,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2960228339.827922</v>
+        <v>2538462515.75064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09252984590554683</v>
+        <v>0.09694190870783451</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03785145751375091</v>
+        <v>0.04449193088965488</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>137</v>
+      </c>
+      <c r="J22" t="n">
+        <v>468</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21.8341713057016</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1536569166.843521</v>
+        <v>1133805274.250413</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1585978215145101</v>
+        <v>0.1817632757000176</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03721290548443607</v>
+        <v>0.04521776460269297</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3966629948.678258</v>
+        <v>3512987232.950743</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1172018662619072</v>
+        <v>0.09456573575167733</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02648001260074813</v>
+        <v>0.03476374476054509</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>149</v>
+      </c>
+      <c r="J24" t="n">
+        <v>469</v>
+      </c>
+      <c r="K24" t="n">
+        <v>34.70887403819268</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1006294735.276047</v>
+        <v>1402488728.641635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1095924812614675</v>
+        <v>0.09990405313915576</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02555439128464306</v>
+        <v>0.02907569206465856</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1051925517.737945</v>
+        <v>1337114503.281097</v>
       </c>
       <c r="F26" t="n">
-        <v>0.115609583885691</v>
+        <v>0.1145511505392497</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03641803346683617</v>
+        <v>0.03767374719362895</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1390,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4210838928.979612</v>
+        <v>4262594345.149006</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1316116350595997</v>
+        <v>0.09999336210635165</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02125538093858993</v>
+        <v>0.02714170714191954</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>206</v>
+      </c>
+      <c r="J27" t="n">
+        <v>469</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3268395098.655375</v>
+        <v>3137121871.671897</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1151185254192777</v>
+        <v>0.1115022788863844</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04492295706073504</v>
+        <v>0.04446382131827484</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" t="n">
+        <v>464</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3962462943.68337</v>
+        <v>3846013706.338421</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1415297114491369</v>
+        <v>0.1459471186480576</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03577566504057517</v>
+        <v>0.03135637223320798</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>375</v>
+      </c>
+      <c r="J29" t="n">
+        <v>469</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2236925260.525275</v>
+        <v>1789325752.700225</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1338616994216134</v>
+        <v>0.08540574921609961</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03315173489101014</v>
+        <v>0.0273542782934006</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1400447518.694063</v>
+        <v>1478878246.259</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07908238092117778</v>
+        <v>0.08458333125084491</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03701139857094311</v>
+        <v>0.03468304698457783</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1837250605.293005</v>
+        <v>1660609983.208605</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07853165506310539</v>
+        <v>0.1183041558665333</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03172654163651374</v>
+        <v>0.02558839768495983</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1998869588.281225</v>
+        <v>2554048000.889377</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1948244620713015</v>
+        <v>0.1917551990666508</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04155797307524769</v>
+        <v>0.04283659862801634</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1023785247.82891</v>
+        <v>1415395136.613905</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08124474438227512</v>
+        <v>0.1068812733012204</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02768381157030066</v>
+        <v>0.01750439689347939</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1324792047.583272</v>
+        <v>1167427575.952013</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1011895060692104</v>
+        <v>0.09319591982833483</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04423216898707164</v>
+        <v>0.04079119540798831</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3196216675.891853</v>
+        <v>2255835812.885959</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1639442978496048</v>
+        <v>0.1695633803921811</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02211145739771146</v>
+        <v>0.02169998321287545</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2910917293.011909</v>
+        <v>2785540246.873688</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07869788936391044</v>
+        <v>0.1096099389141924</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02863155399930077</v>
+        <v>0.03172421151775008</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1579589825.436103</v>
+        <v>1627807409.102418</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1111429612052686</v>
+        <v>0.08876275207527073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03323915437133328</v>
+        <v>0.03981649013015239</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1340741953.601818</v>
+        <v>1515809054.515999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1264912306687392</v>
+        <v>0.1517696460291686</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02917742499864134</v>
+        <v>0.02198253018112015</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1702356914.475788</v>
+        <v>1491115410.567583</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1260448924642595</v>
+        <v>0.1366879817116619</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05202336699591738</v>
+        <v>0.04224894692505959</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2594260139.864444</v>
+        <v>1764539967.489367</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1010273910572815</v>
+        <v>0.1403008090916019</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03197747250782535</v>
+        <v>0.04022949942392669</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3100189960.193675</v>
+        <v>4256801212.845476</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1198876755433514</v>
+        <v>0.1033673958823212</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03245671943540717</v>
+        <v>0.03399339681800875</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>204</v>
+      </c>
+      <c r="J42" t="n">
+        <v>469</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2628074245.780542</v>
+        <v>2209280914.343843</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1835908675820784</v>
+        <v>0.1440453261945724</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01982007120563466</v>
+        <v>0.01943695841586751</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1711832793.812967</v>
+        <v>1508703802.040719</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07633030986268946</v>
+        <v>0.07909603310380432</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02800061642493491</v>
+        <v>0.03569423680159552</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2166769757.824768</v>
+        <v>2189024185.401291</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1410137989575749</v>
+        <v>0.1808357543291344</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05471584848340182</v>
+        <v>0.05611289533218463</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3961534713.669497</v>
+        <v>3527202129.072688</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1327078705826163</v>
+        <v>0.1687054665498413</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03700224599114103</v>
+        <v>0.04144961725432327</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>277</v>
+      </c>
+      <c r="J46" t="n">
+        <v>469</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4049399219.538804</v>
+        <v>3445348100.839039</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1517589361551948</v>
+        <v>0.1780998088602912</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05176849412522541</v>
+        <v>0.04275201382056236</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>212</v>
+      </c>
+      <c r="J47" t="n">
+        <v>468</v>
+      </c>
+      <c r="K47" t="n">
+        <v>27.7672018359334</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4045963437.82073</v>
+        <v>3751398871.927171</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07734844722745883</v>
+        <v>0.08501621473888286</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03116531719626581</v>
+        <v>0.03781666880280344</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>234</v>
+      </c>
+      <c r="J48" t="n">
+        <v>469</v>
+      </c>
+      <c r="K48" t="n">
+        <v>35.68158749446217</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1556464968.312914</v>
+        <v>1537291142.845127</v>
       </c>
       <c r="F49" t="n">
-        <v>0.145307716598242</v>
+        <v>0.192067160640891</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04125486056191468</v>
+        <v>0.03046164670892296</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3274369954.820585</v>
+        <v>3272645675.571199</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1606607982818211</v>
+        <v>0.1257148278094225</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04621776041895107</v>
+        <v>0.03849342061108526</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>168</v>
+      </c>
+      <c r="J50" t="n">
+        <v>467</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1322727972.154497</v>
+        <v>1101633898.971109</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1362574124149837</v>
+        <v>0.1379943779738745</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03570558900035527</v>
+        <v>0.04405808525714446</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4399448737.167994</v>
+        <v>4630382733.061475</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1129142264894373</v>
+        <v>0.08502904863865358</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06146966794586482</v>
+        <v>0.05947757153689869</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>265</v>
+      </c>
+      <c r="J52" t="n">
+        <v>468</v>
+      </c>
+      <c r="K52" t="n">
+        <v>28.65650797011425</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2516515576.585331</v>
+        <v>3775227415.540365</v>
       </c>
       <c r="F53" t="n">
-        <v>0.136910742503188</v>
+        <v>0.1498031954387845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02292356837582268</v>
+        <v>0.02780336480190187</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>469</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3747668222.094698</v>
+        <v>3166856470.707334</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1386085418018122</v>
+        <v>0.1613481540688187</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03655511065083691</v>
+        <v>0.03872349836223481</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>248</v>
+      </c>
+      <c r="J54" t="n">
+        <v>467</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4846725585.231012</v>
+        <v>4188158192.11901</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2240212865296312</v>
+        <v>0.2147071813394985</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02444911535659569</v>
+        <v>0.02322145590207108</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>231</v>
+      </c>
+      <c r="J55" t="n">
+        <v>469</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1667254997.374056</v>
+        <v>1191562100.823377</v>
       </c>
       <c r="F56" t="n">
-        <v>0.165148671867708</v>
+        <v>0.1530764610989118</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04760161355539223</v>
+        <v>0.04171190485536246</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4150906534.78299</v>
+        <v>4233393575.86329</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1444343243912149</v>
+        <v>0.1384978212224342</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02343816605439843</v>
+        <v>0.02099820464953226</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>201</v>
+      </c>
+      <c r="J57" t="n">
+        <v>469</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1807713333.805036</v>
+        <v>1268132581.161562</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1989357942406712</v>
+        <v>0.1342135652198444</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0295738182921346</v>
+        <v>0.03076147815662363</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4393007922.200319</v>
+        <v>3268418109.204835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.117709905180413</v>
+        <v>0.120883902864688</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03394620252963285</v>
+        <v>0.0379726590653504</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>230</v>
+      </c>
+      <c r="J59" t="n">
+        <v>468</v>
+      </c>
+      <c r="K59" t="n">
+        <v>24.83920477064053</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3723242047.962864</v>
+        <v>2475432453.342669</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1621750897690256</v>
+        <v>0.1289515476344784</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02061844562723889</v>
+        <v>0.02544469921552143</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>91</v>
+      </c>
+      <c r="J60" t="n">
+        <v>465</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2408688098.492514</v>
+        <v>2361571967.939717</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1565715505079311</v>
+        <v>0.1795068743950133</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02428810726721903</v>
+        <v>0.02076757738701673</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2047339051.5863</v>
+        <v>1854122361.912982</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1205312514487111</v>
+        <v>0.1327989045965056</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03657045559261353</v>
+        <v>0.04629602798817018</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3927096977.73929</v>
+        <v>3414143788.268747</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09791584526157861</v>
+        <v>0.08231884454432579</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03543519272127082</v>
+        <v>0.0395823424264055</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>235</v>
+      </c>
+      <c r="J63" t="n">
+        <v>467</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5200711377.314501</v>
+        <v>4597581113.425597</v>
       </c>
       <c r="F64" t="n">
-        <v>0.121031372355534</v>
+        <v>0.1511906470337213</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02743965438094773</v>
+        <v>0.02845245007028227</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>235</v>
+      </c>
+      <c r="J64" t="n">
+        <v>468</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30.19996084565753</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3721311435.52197</v>
+        <v>5922123419.617826</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1527737301840134</v>
+        <v>0.1504482291251724</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03114427661582497</v>
+        <v>0.02226967073499152</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>332</v>
+      </c>
+      <c r="J65" t="n">
+        <v>469</v>
+      </c>
+      <c r="K65" t="n">
+        <v>33.59186425929838</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3474054896.204736</v>
+        <v>5098933777.129515</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1434094199164409</v>
+        <v>0.1456188064055626</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03142785235040887</v>
+        <v>0.04438652074484786</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>231</v>
+      </c>
+      <c r="J66" t="n">
+        <v>469</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3430238186.144875</v>
+        <v>3340372563.404083</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09754094024988862</v>
+        <v>0.07318682204529159</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03518991758215403</v>
+        <v>0.04142051372638583</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4972336812.494589</v>
+        <v>4670465083.944045</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1170663538758935</v>
+        <v>0.1464416848394345</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03414932020243309</v>
+        <v>0.03495534715586594</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>255</v>
+      </c>
+      <c r="J68" t="n">
+        <v>469</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1969779350.603301</v>
+        <v>2319180101.628225</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1817861846033021</v>
+        <v>0.110389750578816</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05961465200056758</v>
+        <v>0.05522653851148077</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2966204877.546158</v>
+        <v>2968624735.5183</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08250870327682226</v>
+        <v>0.08438467273322077</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03882368726326012</v>
+        <v>0.03390082436636189</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="n">
+        <v>33.35997228946467</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5361774927.03508</v>
+        <v>4500035680.686754</v>
       </c>
       <c r="F71" t="n">
-        <v>0.131415518054997</v>
+        <v>0.1138786848698555</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02992139165188813</v>
+        <v>0.03086345812698471</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>318</v>
+      </c>
+      <c r="J71" t="n">
+        <v>469</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1878902968.164029</v>
+        <v>2164692878.49426</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0846072943062704</v>
+        <v>0.07977326643132351</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04755585258105534</v>
+        <v>0.04629913541564624</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3429565652.263153</v>
+        <v>2911881824.739615</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1071246233221424</v>
+        <v>0.1000425341366406</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04657887303349114</v>
+        <v>0.03908186290729113</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39</v>
+      </c>
+      <c r="J73" t="n">
+        <v>469</v>
+      </c>
+      <c r="K73" t="n">
+        <v>46.86734932191819</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3605636295.689333</v>
+        <v>2537528889.155865</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1398344796003361</v>
+        <v>0.1337340532532711</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03019810581189965</v>
+        <v>0.02763923242371493</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>137</v>
+      </c>
+      <c r="J74" t="n">
+        <v>467</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2478688500.083945</v>
+        <v>1609755401.3779</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1229215443246866</v>
+        <v>0.1279066962728644</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02827518687234793</v>
+        <v>0.03422016699265794</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4718034185.468628</v>
+        <v>3831095280.282463</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1165432242931762</v>
+        <v>0.08088775504983671</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02129468368901559</v>
+        <v>0.03088760519708839</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>224</v>
+      </c>
+      <c r="J76" t="n">
+        <v>468</v>
+      </c>
+      <c r="K76" t="n">
+        <v>32.08201335187078</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2079175216.330364</v>
+        <v>2287306533.116733</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1870443078668196</v>
+        <v>0.1128620838926886</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02883825860693577</v>
+        <v>0.02111352835927455</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3607965513.243923</v>
+        <v>4305781712.404765</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1345273379625027</v>
+        <v>0.1192251722420137</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03544492968158467</v>
+        <v>0.05579138352574434</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>233</v>
+      </c>
+      <c r="J78" t="n">
+        <v>468</v>
+      </c>
+      <c r="K78" t="n">
+        <v>32.37647247763253</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1450838035.168287</v>
+        <v>1494741219.261159</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148389054322547</v>
+        <v>0.172465847670423</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03550095762605616</v>
+        <v>0.02803575546336558</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4441875868.987953</v>
+        <v>5095356572.374414</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06747528410229428</v>
+        <v>0.07931765242210446</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03718161618826296</v>
+        <v>0.03045527518979302</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>229</v>
+      </c>
+      <c r="J80" t="n">
+        <v>468</v>
+      </c>
+      <c r="K80" t="n">
+        <v>29.3278597739413</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3562602700.78704</v>
+        <v>4154533891.226238</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09572276888234869</v>
+        <v>0.1005184777888727</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03100551421585767</v>
+        <v>0.02692198861592597</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>218</v>
+      </c>
+      <c r="J81" t="n">
+        <v>468</v>
+      </c>
+      <c r="K81" t="n">
+        <v>30.40493355357162</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5395883530.101784</v>
+        <v>3760470241.89056</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1616094559112219</v>
+        <v>0.2166621624512813</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02746268362454481</v>
+        <v>0.02586784888255397</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>310</v>
+      </c>
+      <c r="J82" t="n">
+        <v>469</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1598586578.237429</v>
+        <v>1955494917.645559</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1179365066420264</v>
+        <v>0.1057129460443457</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04307071336484553</v>
+        <v>0.03396923580353134</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2014973312.699103</v>
+        <v>2409206179.252227</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07627160409861106</v>
+        <v>0.09059471993913197</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03246121989605204</v>
+        <v>0.03767610929360178</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2988209048.264763</v>
+        <v>2541479284.631262</v>
       </c>
       <c r="F85" t="n">
-        <v>0.184468529173525</v>
+        <v>0.1355512405763921</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05636589534999282</v>
+        <v>0.05141557827032305</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1696567944.790487</v>
+        <v>2343952742.37536</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1649897047781601</v>
+        <v>0.1507176390457258</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02510558202771986</v>
+        <v>0.02173202901886468</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>979316697.3096451</v>
+        <v>1267872214.804375</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1241206443993014</v>
+        <v>0.1399504949567359</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04204092426564945</v>
+        <v>0.03280382747603239</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2311564388.574492</v>
+        <v>3273006286.446564</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1254521213282623</v>
+        <v>0.1419888588914289</v>
       </c>
       <c r="G88" t="n">
-        <v>0.032810263272931</v>
+        <v>0.02513498256592028</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2685076055.918261</v>
+        <v>2347978180.063786</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1526277999609523</v>
+        <v>0.1468108850147954</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03147601587622282</v>
+        <v>0.02685375507986605</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1888639932.107874</v>
+        <v>1864125818.554493</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1010053893404478</v>
+        <v>0.09958690513881739</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05374242445016488</v>
+        <v>0.04695858148858714</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1614088903.887303</v>
+        <v>1416747320.593038</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1528954446887929</v>
+        <v>0.1731293886634516</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04425086704263379</v>
+        <v>0.0604423149698746</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2465149840.25649</v>
+        <v>1972890822.133232</v>
       </c>
       <c r="F92" t="n">
-        <v>0.105276945207209</v>
+        <v>0.08890691591908177</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02956512105897425</v>
+        <v>0.04114948166954526</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4513917988.296127</v>
+        <v>3236844768.062982</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1303132623371637</v>
+        <v>0.09601308081692091</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03364466395600991</v>
+        <v>0.04820229225538723</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>225</v>
+      </c>
+      <c r="J93" t="n">
+        <v>467</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1929554606.090651</v>
+        <v>1905462044.804522</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1357719178637201</v>
+        <v>0.1311622984749558</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03063095429196215</v>
+        <v>0.03965177679887184</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2530139883.84866</v>
+        <v>2502870423.162821</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1325092389258217</v>
+        <v>0.1046162721995448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03785920537833441</v>
+        <v>0.04388712948657995</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1938997641.882207</v>
+        <v>1619435515.259302</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09495222776370074</v>
+        <v>0.1214068681170586</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04348563252973472</v>
+        <v>0.04466974856478949</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4545620184.048215</v>
+        <v>4664697064.263621</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1350467914003542</v>
+        <v>0.1690920618148334</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01888108030273921</v>
+        <v>0.02844434170492481</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>244</v>
+      </c>
+      <c r="J97" t="n">
+        <v>469</v>
+      </c>
+      <c r="K97" t="n">
+        <v>33.71910834849864</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2667690601.505474</v>
+        <v>2900068062.645126</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1278302520031256</v>
+        <v>0.08313409638222605</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02334555644334893</v>
+        <v>0.0197924865908764</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2628531033.844347</v>
+        <v>2825646881.252896</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09419149215856505</v>
+        <v>0.1322209484585363</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03323342511359402</v>
+        <v>0.02677193490034871</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4479520190.73731</v>
+        <v>3979767285.65768</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1089562722241418</v>
+        <v>0.1395045452133038</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02013571111595657</v>
+        <v>0.02004364569857112</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>219</v>
+      </c>
+      <c r="J100" t="n">
+        <v>469</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3159703362.91777</v>
+        <v>3352214940.441933</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157537156505231</v>
+        <v>0.1636680648247087</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05272211658932665</v>
+        <v>0.05009064273463763</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
